--- a/Banking Bonds (as of 20230406).xlsx
+++ b/Banking Bonds (as of 20230406).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\202303 Seniority Ranking for Bond\Bonds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zariff\Documents\Python Files\Seniority-Ranking\Seniority-Ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13075,8 +13075,8 @@
   </sheetPr>
   <dimension ref="A1:N1804"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1260" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N1260" sqref="N1260"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E953" sqref="E953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13085,7 +13085,7 @@
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
